--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dcn-Tlr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dcn-Tlr2.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.737865999999999</v>
+        <v>6.255517999999999</v>
       </c>
       <c r="H2">
-        <v>23.213598</v>
+        <v>18.766554</v>
       </c>
       <c r="I2">
-        <v>0.005143665428903487</v>
+        <v>0.004328522994477444</v>
       </c>
       <c r="J2">
-        <v>0.005214527395311927</v>
+        <v>0.004332266345976813</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.919382</v>
+        <v>2.546648333333333</v>
       </c>
       <c r="N2">
-        <v>2.758146</v>
+        <v>7.639944999999999</v>
       </c>
       <c r="O2">
-        <v>0.005737395776689386</v>
+        <v>0.01458319278139283</v>
       </c>
       <c r="P2">
-        <v>0.005740724152602041</v>
+        <v>0.01462456071422719</v>
       </c>
       <c r="Q2">
-        <v>7.114054718812</v>
+        <v>15.93060448883666</v>
       </c>
       <c r="R2">
-        <v>64.026492469308</v>
+        <v>143.37544039953</v>
       </c>
       <c r="S2">
-        <v>2.951124430849406E-05</v>
+        <v>6.312368528715632E-05</v>
       </c>
       <c r="T2">
-        <v>2.993516336267219E-05</v>
+        <v>6.335749220694105E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.737865999999999</v>
+        <v>6.255517999999999</v>
       </c>
       <c r="H3">
-        <v>23.213598</v>
+        <v>18.766554</v>
       </c>
       <c r="I3">
-        <v>0.005143665428903487</v>
+        <v>0.004328522994477444</v>
       </c>
       <c r="J3">
-        <v>0.005214527395311927</v>
+        <v>0.004332266345976813</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>7.593403</v>
       </c>
       <c r="O3">
-        <v>0.01579552289940435</v>
+        <v>0.01449435301115475</v>
       </c>
       <c r="P3">
-        <v>0.01580468619229758</v>
+        <v>0.01453546893349296</v>
       </c>
       <c r="Q3">
-        <v>19.58557829933267</v>
+        <v>15.83355638258467</v>
       </c>
       <c r="R3">
-        <v>176.270204693994</v>
+        <v>142.502007443262</v>
       </c>
       <c r="S3">
-        <v>8.124688506911954E-05</v>
+        <v>6.27391402988567E-05</v>
       </c>
       <c r="T3">
-        <v>8.241396912404387E-05</v>
+        <v>6.297152288356303E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.737865999999999</v>
+        <v>6.255517999999999</v>
       </c>
       <c r="H4">
-        <v>23.213598</v>
+        <v>18.766554</v>
       </c>
       <c r="I4">
-        <v>0.005143665428903487</v>
+        <v>0.004328522994477444</v>
       </c>
       <c r="J4">
-        <v>0.005214527395311927</v>
+        <v>0.004332266345976813</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>65.03016100000001</v>
+        <v>94.63104</v>
       </c>
       <c r="N4">
-        <v>195.090483</v>
+        <v>283.89312</v>
       </c>
       <c r="O4">
-        <v>0.4058201825561418</v>
+        <v>0.5418976312357076</v>
       </c>
       <c r="P4">
-        <v>0.4060556068101174</v>
+        <v>0.5434348244380536</v>
       </c>
       <c r="Q4">
-        <v>503.194671776426</v>
+        <v>591.96617407872</v>
       </c>
       <c r="R4">
-        <v>4528.752045987833</v>
+        <v>5327.69556670848</v>
       </c>
       <c r="S4">
-        <v>0.002087403243365329</v>
+        <v>0.002345616357456619</v>
       </c>
       <c r="T4">
-        <v>0.002117388085731366</v>
+        <v>0.002354304401144797</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.737865999999999</v>
+        <v>6.255517999999999</v>
       </c>
       <c r="H5">
-        <v>23.213598</v>
+        <v>18.766554</v>
       </c>
       <c r="I5">
-        <v>0.005143665428903487</v>
+        <v>0.004328522994477444</v>
       </c>
       <c r="J5">
-        <v>0.005214527395311927</v>
+        <v>0.004332266345976813</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.27872</v>
+        <v>1.481899</v>
       </c>
       <c r="N5">
-        <v>0.5574399999999999</v>
+        <v>2.963798</v>
       </c>
       <c r="O5">
-        <v>0.001739349857707531</v>
+        <v>0.00848598470259403</v>
       </c>
       <c r="P5">
-        <v>0.001160239259135115</v>
+        <v>0.005673371182083786</v>
       </c>
       <c r="Q5">
-        <v>2.15669801152</v>
+        <v>9.270045868681999</v>
       </c>
       <c r="R5">
-        <v>12.94018806912</v>
+        <v>55.620275212092</v>
       </c>
       <c r="S5">
-        <v>8.946633731858425E-06</v>
+        <v>3.67317799159621E-05</v>
       </c>
       <c r="T5">
-        <v>6.050099401876473E-06</v>
+        <v>2.457855504037628E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.737865999999999</v>
+        <v>6.255517999999999</v>
       </c>
       <c r="H6">
-        <v>23.213598</v>
+        <v>18.766554</v>
       </c>
       <c r="I6">
-        <v>0.005143665428903487</v>
+        <v>0.004328522994477444</v>
       </c>
       <c r="J6">
-        <v>0.005214527395311927</v>
+        <v>0.004332266345976813</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>91.48438500000002</v>
+        <v>73.43827566666666</v>
       </c>
       <c r="N6">
-        <v>274.453155</v>
+        <v>220.314827</v>
       </c>
       <c r="O6">
-        <v>0.5709075489100568</v>
+        <v>0.420538838269151</v>
       </c>
       <c r="P6">
-        <v>0.5712387435858478</v>
+        <v>0.4217317747321426</v>
       </c>
       <c r="Q6">
-        <v>707.8939122224101</v>
+        <v>459.3944553217952</v>
       </c>
       <c r="R6">
-        <v>6371.04521000169</v>
+        <v>4134.550097896157</v>
       </c>
       <c r="S6">
-        <v>0.002936557422428686</v>
+        <v>0.001820312031518851</v>
       </c>
       <c r="T6">
-        <v>0.002978740077691969</v>
+        <v>0.001827054374701136</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>4295.770264</v>
       </c>
       <c r="I7">
-        <v>0.9518561059534332</v>
+        <v>0.9908233747504438</v>
       </c>
       <c r="J7">
-        <v>0.964969399642156</v>
+        <v>0.9916802490630473</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.919382</v>
+        <v>2.546648333333333</v>
       </c>
       <c r="N7">
-        <v>2.758146</v>
+        <v>7.639944999999999</v>
       </c>
       <c r="O7">
-        <v>0.005737395776689386</v>
+        <v>0.01458319278139283</v>
       </c>
       <c r="P7">
-        <v>0.005740724152602041</v>
+        <v>0.01462456071422719</v>
       </c>
       <c r="Q7">
-        <v>1316.484618952283</v>
+        <v>3646.605394399497</v>
       </c>
       <c r="R7">
-        <v>11848.36157057054</v>
+        <v>32819.44854959547</v>
       </c>
       <c r="S7">
-        <v>0.005461175202313232</v>
+        <v>0.01444936828629595</v>
       </c>
       <c r="T7">
-        <v>0.005539623139047617</v>
+        <v>0.01450288801152247</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>4295.770264</v>
       </c>
       <c r="I8">
-        <v>0.9518561059534332</v>
+        <v>0.9908233747504438</v>
       </c>
       <c r="J8">
-        <v>0.964969399642156</v>
+        <v>0.9916802490630473</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>7.593403</v>
       </c>
       <c r="O8">
-        <v>0.01579552289940435</v>
+        <v>0.01449435301115475</v>
       </c>
       <c r="P8">
-        <v>0.01580468619229758</v>
+        <v>0.01453546893349296</v>
       </c>
       <c r="Q8">
         <v>3624.390534440932</v>
@@ -948,10 +948,10 @@
         <v>32619.51480996839</v>
       </c>
       <c r="S8">
-        <v>0.01503506491852531</v>
+        <v>0.0143613437653366</v>
       </c>
       <c r="T8">
-        <v>0.01525103854651407</v>
+        <v>0.01441453745221449</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>4295.770264</v>
       </c>
       <c r="I9">
-        <v>0.9518561059534332</v>
+        <v>0.9908233747504438</v>
       </c>
       <c r="J9">
-        <v>0.964969399642156</v>
+        <v>0.9916802490630473</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.03016100000001</v>
+        <v>94.63104</v>
       </c>
       <c r="N9">
-        <v>195.090483</v>
+        <v>283.89312</v>
       </c>
       <c r="O9">
-        <v>0.4058201825561418</v>
+        <v>0.5418976312357076</v>
       </c>
       <c r="P9">
-        <v>0.4060556068101174</v>
+        <v>0.5434348244380536</v>
       </c>
       <c r="Q9">
-        <v>93118.2106289775</v>
+        <v>135504.4025611315</v>
       </c>
       <c r="R9">
-        <v>838063.8956607975</v>
+        <v>1219539.623050184</v>
       </c>
       <c r="S9">
-        <v>0.3862824186852005</v>
+        <v>0.5369248397502353</v>
       </c>
       <c r="T9">
-        <v>0.3918312351248903</v>
+        <v>0.5389135820482623</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>4295.770264</v>
       </c>
       <c r="I10">
-        <v>0.9518561059534332</v>
+        <v>0.9908233747504438</v>
       </c>
       <c r="J10">
-        <v>0.964969399642156</v>
+        <v>0.9916802490630473</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.27872</v>
+        <v>1.481899</v>
       </c>
       <c r="N10">
-        <v>0.5574399999999999</v>
+        <v>2.963798</v>
       </c>
       <c r="O10">
-        <v>0.001739349857707531</v>
+        <v>0.00848598470259403</v>
       </c>
       <c r="P10">
-        <v>0.001160239259135115</v>
+        <v>0.005673371182083786</v>
       </c>
       <c r="Q10">
-        <v>399.1056959940266</v>
+        <v>2121.965886150445</v>
       </c>
       <c r="R10">
-        <v>2394.63417596416</v>
+        <v>12731.79531690267</v>
       </c>
       <c r="S10">
-        <v>0.001655610782448148</v>
+        <v>0.008408112001104858</v>
       </c>
       <c r="T10">
-        <v>0.001119595381328872</v>
+        <v>0.005626170146875964</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>4295.770264</v>
       </c>
       <c r="I11">
-        <v>0.9518561059534332</v>
+        <v>0.9908233747504438</v>
       </c>
       <c r="J11">
-        <v>0.964969399642156</v>
+        <v>0.9916802490630473</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>91.48438500000002</v>
+        <v>73.43827566666666</v>
       </c>
       <c r="N11">
-        <v>274.453155</v>
+        <v>220.314827</v>
       </c>
       <c r="O11">
-        <v>0.5709075489100568</v>
+        <v>0.420538838269151</v>
       </c>
       <c r="P11">
-        <v>0.5712387435858478</v>
+        <v>0.4217317747321426</v>
       </c>
       <c r="Q11">
-        <v>130998.6335677759</v>
+        <v>105157.9869494338</v>
       </c>
       <c r="R11">
-        <v>1178987.702109983</v>
+        <v>946421.8825449041</v>
       </c>
       <c r="S11">
-        <v>0.5434218363649459</v>
+        <v>0.4166797109474713</v>
       </c>
       <c r="T11">
-        <v>0.5512279074503751</v>
+        <v>0.4182230714041721</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.264599666666667</v>
+        <v>2.198520666666667</v>
       </c>
       <c r="H12">
-        <v>6.793799</v>
+        <v>6.595561999999999</v>
       </c>
       <c r="I12">
-        <v>0.001505368924163289</v>
+        <v>0.00152127246049017</v>
       </c>
       <c r="J12">
-        <v>0.001526107715130708</v>
+        <v>0.001522588072663927</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.919382</v>
+        <v>2.546648333333333</v>
       </c>
       <c r="N12">
-        <v>2.758146</v>
+        <v>7.639944999999999</v>
       </c>
       <c r="O12">
-        <v>0.005737395776689386</v>
+        <v>0.01458319278139283</v>
       </c>
       <c r="P12">
-        <v>0.005740724152602041</v>
+        <v>0.01462456071422719</v>
       </c>
       <c r="Q12">
-        <v>2.082032170739334</v>
+        <v>5.598858991565555</v>
       </c>
       <c r="R12">
-        <v>18.738289536654</v>
+        <v>50.38973092408999</v>
       </c>
       <c r="S12">
-        <v>8.6368973078539E-06</v>
+        <v>2.218500956435195E-05</v>
       </c>
       <c r="T12">
-        <v>8.760963419723174E-06</v>
+        <v>2.226718171143176E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.264599666666667</v>
+        <v>2.198520666666667</v>
       </c>
       <c r="H13">
-        <v>6.793799</v>
+        <v>6.595561999999999</v>
       </c>
       <c r="I13">
-        <v>0.001505368924163289</v>
+        <v>0.00152127246049017</v>
       </c>
       <c r="J13">
-        <v>0.001526107715130708</v>
+        <v>0.001522588072663927</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>7.593403</v>
       </c>
       <c r="O13">
-        <v>0.01579552289940435</v>
+        <v>0.01449435301115475</v>
       </c>
       <c r="P13">
-        <v>0.01580468619229758</v>
+        <v>0.01453546893349296</v>
       </c>
       <c r="Q13">
-        <v>5.732005967555224</v>
+        <v>5.564751141942889</v>
       </c>
       <c r="R13">
-        <v>51.588053707997</v>
+        <v>50.082760277486</v>
       </c>
       <c r="S13">
-        <v>2.377808931367293E-05</v>
+        <v>2.204986006849248E-05</v>
       </c>
       <c r="T13">
-        <v>2.411965353328511E-05</v>
+        <v>2.213153162871344E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.264599666666667</v>
+        <v>2.198520666666667</v>
       </c>
       <c r="H14">
-        <v>6.793799</v>
+        <v>6.595561999999999</v>
       </c>
       <c r="I14">
-        <v>0.001505368924163289</v>
+        <v>0.00152127246049017</v>
       </c>
       <c r="J14">
-        <v>0.001526107715130708</v>
+        <v>0.001522588072663927</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>65.03016100000001</v>
+        <v>94.63104</v>
       </c>
       <c r="N14">
-        <v>195.090483</v>
+        <v>283.89312</v>
       </c>
       <c r="O14">
-        <v>0.4058201825561418</v>
+        <v>0.5418976312357076</v>
       </c>
       <c r="P14">
-        <v>0.4060556068101174</v>
+        <v>0.5434348244380536</v>
       </c>
       <c r="Q14">
-        <v>147.2672809238797</v>
+        <v>208.04829714816</v>
       </c>
       <c r="R14">
-        <v>1325.405528314917</v>
+        <v>1872.43467433344</v>
       </c>
       <c r="S14">
-        <v>0.0006109090916182889</v>
+        <v>0.0008243739428037397</v>
       </c>
       <c r="T14">
-        <v>0.0006196845943250016</v>
+        <v>0.0008274273819595956</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.264599666666667</v>
+        <v>2.198520666666667</v>
       </c>
       <c r="H15">
-        <v>6.793799</v>
+        <v>6.595561999999999</v>
       </c>
       <c r="I15">
-        <v>0.001505368924163289</v>
+        <v>0.00152127246049017</v>
       </c>
       <c r="J15">
-        <v>0.001526107715130708</v>
+        <v>0.001522588072663927</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.27872</v>
+        <v>1.481899</v>
       </c>
       <c r="N15">
-        <v>0.5574399999999999</v>
+        <v>2.963798</v>
       </c>
       <c r="O15">
-        <v>0.001739349857707531</v>
+        <v>0.00848598470259403</v>
       </c>
       <c r="P15">
-        <v>0.001160239259135115</v>
+        <v>0.005673371182083786</v>
       </c>
       <c r="Q15">
-        <v>0.6311892190933333</v>
+        <v>3.257985577412667</v>
       </c>
       <c r="R15">
-        <v>3.78713531456</v>
+        <v>19.547913464476</v>
       </c>
       <c r="S15">
-        <v>2.618363224040756E-06</v>
+        <v>1.290949482819716E-05</v>
       </c>
       <c r="T15">
-        <v>1.770650084763637E-06</v>
+        <v>8.638207293636018E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.264599666666667</v>
+        <v>2.198520666666667</v>
       </c>
       <c r="H16">
-        <v>6.793799</v>
+        <v>6.595561999999999</v>
       </c>
       <c r="I16">
-        <v>0.001505368924163289</v>
+        <v>0.00152127246049017</v>
       </c>
       <c r="J16">
-        <v>0.001526107715130708</v>
+        <v>0.001522588072663927</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>91.48438500000002</v>
+        <v>73.43827566666666</v>
       </c>
       <c r="N16">
-        <v>274.453155</v>
+        <v>220.314827</v>
       </c>
       <c r="O16">
-        <v>0.5709075489100568</v>
+        <v>0.420538838269151</v>
       </c>
       <c r="P16">
-        <v>0.5712387435858478</v>
+        <v>0.4217317747321426</v>
       </c>
       <c r="Q16">
-        <v>207.1755077762051</v>
+        <v>161.4555667775304</v>
       </c>
       <c r="R16">
-        <v>1864.579569985845</v>
+        <v>1453.100100997774</v>
       </c>
       <c r="S16">
-        <v>0.0008594264826994327</v>
+        <v>0.0006397541532253891</v>
       </c>
       <c r="T16">
-        <v>0.0008717718537679348</v>
+        <v>0.0006421237700705505</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>61.32929799999999</v>
+        <v>3.746194</v>
       </c>
       <c r="H17">
-        <v>122.658596</v>
+        <v>7.492388</v>
       </c>
       <c r="I17">
-        <v>0.04076800889308754</v>
+        <v>0.002592189307228184</v>
       </c>
       <c r="J17">
-        <v>0.02755310095024899</v>
+        <v>0.001729620706252225</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.919382</v>
+        <v>2.546648333333333</v>
       </c>
       <c r="N17">
-        <v>2.758146</v>
+        <v>7.639944999999999</v>
       </c>
       <c r="O17">
-        <v>0.005737395776689386</v>
+        <v>0.01458319278139283</v>
       </c>
       <c r="P17">
-        <v>0.005740724152602041</v>
+        <v>0.01462456071422719</v>
       </c>
       <c r="Q17">
-        <v>56.385052653836</v>
+        <v>9.540238706443333</v>
       </c>
       <c r="R17">
-        <v>338.310315923016</v>
+        <v>57.24143223866</v>
       </c>
       <c r="S17">
-        <v>0.0002339022020472358</v>
+        <v>3.780239639317373E-05</v>
       </c>
       <c r="T17">
-        <v>0.0001581747521041766</v>
+        <v>2.529494303117017E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>61.32929799999999</v>
+        <v>3.746194</v>
       </c>
       <c r="H18">
-        <v>122.658596</v>
+        <v>7.492388</v>
       </c>
       <c r="I18">
-        <v>0.04076800889308754</v>
+        <v>0.002592189307228184</v>
       </c>
       <c r="J18">
-        <v>0.02755310095024899</v>
+        <v>0.001729620706252225</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>7.593403</v>
       </c>
       <c r="O18">
-        <v>0.01579552289940435</v>
+        <v>0.01449435301115475</v>
       </c>
       <c r="P18">
-        <v>0.01580468619229758</v>
+        <v>0.01453546893349296</v>
       </c>
       <c r="Q18">
-        <v>155.2326918070313</v>
+        <v>9.482120252727334</v>
       </c>
       <c r="R18">
-        <v>931.3961508421879</v>
+        <v>56.89272151636401</v>
       </c>
       <c r="S18">
-        <v>0.0006439520180338845</v>
+        <v>3.757210689070597E-05</v>
       </c>
       <c r="T18">
-        <v>0.0004354681141433815</v>
+        <v>2.514084804245537E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>61.32929799999999</v>
+        <v>3.746194</v>
       </c>
       <c r="H19">
-        <v>122.658596</v>
+        <v>7.492388</v>
       </c>
       <c r="I19">
-        <v>0.04076800889308754</v>
+        <v>0.002592189307228184</v>
       </c>
       <c r="J19">
-        <v>0.02755310095024899</v>
+        <v>0.001729620706252225</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>65.03016100000001</v>
+        <v>94.63104</v>
       </c>
       <c r="N19">
-        <v>195.090483</v>
+        <v>283.89312</v>
       </c>
       <c r="O19">
-        <v>0.4058201825561418</v>
+        <v>0.5418976312357076</v>
       </c>
       <c r="P19">
-        <v>0.4060556068101174</v>
+        <v>0.5434348244380536</v>
       </c>
       <c r="Q19">
-        <v>3988.254122956978</v>
+        <v>354.50623426176</v>
       </c>
       <c r="R19">
-        <v>23929.52473774187</v>
+        <v>2127.03740557056</v>
       </c>
       <c r="S19">
-        <v>0.0165444808114432</v>
+        <v>0.001404701245301483</v>
       </c>
       <c r="T19">
-        <v>0.01118809112585377</v>
+        <v>0.0009399361248466001</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>61.32929799999999</v>
+        <v>3.746194</v>
       </c>
       <c r="H20">
-        <v>122.658596</v>
+        <v>7.492388</v>
       </c>
       <c r="I20">
-        <v>0.04076800889308754</v>
+        <v>0.002592189307228184</v>
       </c>
       <c r="J20">
-        <v>0.02755310095024899</v>
+        <v>0.001729620706252225</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.27872</v>
+        <v>1.481899</v>
       </c>
       <c r="N20">
-        <v>0.5574399999999999</v>
+        <v>2.963798</v>
       </c>
       <c r="O20">
-        <v>0.001739349857707531</v>
+        <v>0.00848598470259403</v>
       </c>
       <c r="P20">
-        <v>0.001160239259135115</v>
+        <v>0.005673371182083786</v>
       </c>
       <c r="Q20">
-        <v>17.09370193856</v>
+        <v>5.551481142406001</v>
       </c>
       <c r="R20">
-        <v>68.37480775423998</v>
+        <v>22.205924569624</v>
       </c>
       <c r="S20">
-        <v>7.090983046721118E-05</v>
+        <v>2.199727880736619E-05</v>
       </c>
       <c r="T20">
-        <v>3.196818943339192E-05</v>
+        <v>9.812780270786779E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>61.32929799999999</v>
+        <v>3.746194</v>
       </c>
       <c r="H21">
-        <v>122.658596</v>
+        <v>7.492388</v>
       </c>
       <c r="I21">
-        <v>0.04076800889308754</v>
+        <v>0.002592189307228184</v>
       </c>
       <c r="J21">
-        <v>0.02755310095024899</v>
+        <v>0.001729620706252225</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>91.48438500000002</v>
+        <v>73.43827566666666</v>
       </c>
       <c r="N21">
-        <v>274.453155</v>
+        <v>220.314827</v>
       </c>
       <c r="O21">
-        <v>0.5709075489100568</v>
+        <v>0.420538838269151</v>
       </c>
       <c r="P21">
-        <v>0.5712387435858478</v>
+        <v>0.4217317747321426</v>
       </c>
       <c r="Q21">
-        <v>5610.67311001173</v>
+        <v>275.1140276728127</v>
       </c>
       <c r="R21">
-        <v>33664.03866007038</v>
+        <v>1650.684166036876</v>
       </c>
       <c r="S21">
-        <v>0.02327476403109601</v>
+        <v>0.001090116279835456</v>
       </c>
       <c r="T21">
-        <v>0.01573939876871426</v>
+        <v>0.0007294360100612127</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>1.093437</v>
+        <v>1.061691666666667</v>
       </c>
       <c r="H22">
-        <v>3.280311</v>
+        <v>3.185075</v>
       </c>
       <c r="I22">
-        <v>0.000726850800412406</v>
+        <v>0.0007346404873603991</v>
       </c>
       <c r="J22">
-        <v>0.0007368642971521721</v>
+        <v>0.0007352758120596939</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.919382</v>
+        <v>2.546648333333333</v>
       </c>
       <c r="N22">
-        <v>2.758146</v>
+        <v>7.639944999999999</v>
       </c>
       <c r="O22">
-        <v>0.005737395776689386</v>
+        <v>0.01458319278139283</v>
       </c>
       <c r="P22">
-        <v>0.005740724152602041</v>
+        <v>0.01462456071422719</v>
       </c>
       <c r="Q22">
-        <v>1.005286295934</v>
+        <v>2.703755313430555</v>
       </c>
       <c r="R22">
-        <v>9.047576663406</v>
+        <v>24.333797820875</v>
       </c>
       <c r="S22">
-        <v>4.170230712569437E-06</v>
+        <v>1.071340385219308E-05</v>
       </c>
       <c r="T22">
-        <v>4.230134667851602E-06</v>
+        <v>1.075308575516969E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>1.093437</v>
+        <v>1.061691666666667</v>
       </c>
       <c r="H23">
-        <v>3.280311</v>
+        <v>3.185075</v>
       </c>
       <c r="I23">
-        <v>0.000726850800412406</v>
+        <v>0.0007346404873603991</v>
       </c>
       <c r="J23">
-        <v>0.0007368642971521721</v>
+        <v>0.0007352758120596939</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>7.593403</v>
       </c>
       <c r="O23">
-        <v>0.01579552289940435</v>
+        <v>0.01449435301115475</v>
       </c>
       <c r="P23">
-        <v>0.01580468619229758</v>
+        <v>0.01453546893349296</v>
       </c>
       <c r="Q23">
-        <v>2.767635932037</v>
+        <v>2.687284228913889</v>
       </c>
       <c r="R23">
-        <v>24.908723388333</v>
+        <v>24.185558060225</v>
       </c>
       <c r="S23">
-        <v>1.148098846236454E-05</v>
+        <v>1.064813856008839E-05</v>
       </c>
       <c r="T23">
-        <v>1.164590898279799E-05</v>
+        <v>1.068757872374249E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>1.093437</v>
+        <v>1.061691666666667</v>
       </c>
       <c r="H24">
-        <v>3.280311</v>
+        <v>3.185075</v>
       </c>
       <c r="I24">
-        <v>0.000726850800412406</v>
+        <v>0.0007346404873603991</v>
       </c>
       <c r="J24">
-        <v>0.0007368642971521721</v>
+        <v>0.0007352758120596939</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>65.03016100000001</v>
+        <v>94.63104</v>
       </c>
       <c r="N24">
-        <v>195.090483</v>
+        <v>283.89312</v>
       </c>
       <c r="O24">
-        <v>0.4058201825561418</v>
+        <v>0.5418976312357076</v>
       </c>
       <c r="P24">
-        <v>0.4060556068101174</v>
+        <v>0.5434348244380536</v>
       </c>
       <c r="Q24">
-        <v>71.10638415335701</v>
+        <v>100.468986576</v>
       </c>
       <c r="R24">
-        <v>639.9574573802131</v>
+        <v>904.220879184</v>
       </c>
       <c r="S24">
-        <v>0.0002949707245144404</v>
+        <v>0.000398099939910446</v>
       </c>
       <c r="T24">
-        <v>0.0002992078793168359</v>
+        <v>0.000399574481840207</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>1.093437</v>
+        <v>1.061691666666667</v>
       </c>
       <c r="H25">
-        <v>3.280311</v>
+        <v>3.185075</v>
       </c>
       <c r="I25">
-        <v>0.000726850800412406</v>
+        <v>0.0007346404873603991</v>
       </c>
       <c r="J25">
-        <v>0.0007368642971521721</v>
+        <v>0.0007352758120596939</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.27872</v>
+        <v>1.481899</v>
       </c>
       <c r="N25">
-        <v>0.5574399999999999</v>
+        <v>2.963798</v>
       </c>
       <c r="O25">
-        <v>0.001739349857707531</v>
+        <v>0.00848598470259403</v>
       </c>
       <c r="P25">
-        <v>0.001160239259135115</v>
+        <v>0.005673371182083786</v>
       </c>
       <c r="Q25">
-        <v>0.30476276064</v>
+        <v>1.573319819141667</v>
       </c>
       <c r="R25">
-        <v>1.82857656384</v>
+        <v>9.439918914850001</v>
       </c>
       <c r="S25">
-        <v>1.264247836271923E-06</v>
+        <v>6.234147937646569E-06</v>
       </c>
       <c r="T25">
-        <v>8.549388862109535E-07</v>
+        <v>4.171492603022721E-06</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>1.093437</v>
+        <v>1.061691666666667</v>
       </c>
       <c r="H26">
-        <v>3.280311</v>
+        <v>3.185075</v>
       </c>
       <c r="I26">
-        <v>0.000726850800412406</v>
+        <v>0.0007346404873603991</v>
       </c>
       <c r="J26">
-        <v>0.0007368642971521721</v>
+        <v>0.0007352758120596939</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>91.48438500000002</v>
+        <v>73.43827566666666</v>
       </c>
       <c r="N26">
-        <v>274.453155</v>
+        <v>220.314827</v>
       </c>
       <c r="O26">
-        <v>0.5709075489100568</v>
+        <v>0.420538838269151</v>
       </c>
       <c r="P26">
-        <v>0.5712387435858478</v>
+        <v>0.4217317747321426</v>
       </c>
       <c r="Q26">
-        <v>100.032411481245</v>
+        <v>77.96880528966943</v>
       </c>
       <c r="R26">
-        <v>900.2917033312052</v>
+        <v>701.719247607025</v>
       </c>
       <c r="S26">
-        <v>0.0004149646088867596</v>
+        <v>0.0003089448571000251</v>
       </c>
       <c r="T26">
-        <v>0.0004209254352984756</v>
+        <v>0.000310089173137552</v>
       </c>
     </row>
   </sheetData>
